--- a/Code/Results/Cases/Case_3_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.40069885685545</v>
+        <v>9.734077866766217</v>
       </c>
       <c r="C2">
-        <v>10.49797324884485</v>
+        <v>8.52163074024365</v>
       </c>
       <c r="D2">
-        <v>4.192382238841554</v>
+        <v>3.538815405798462</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.5779551132037</v>
+        <v>18.0448088309194</v>
       </c>
       <c r="G2">
-        <v>19.01130883808726</v>
+        <v>18.3586086075477</v>
       </c>
       <c r="H2">
-        <v>7.116392660507108</v>
+        <v>11.4211849205143</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.04691142161828</v>
+        <v>19.96655746346338</v>
       </c>
       <c r="N2">
-        <v>10.5895890844807</v>
+        <v>16.06528831776998</v>
       </c>
       <c r="O2">
-        <v>11.57185463343991</v>
+        <v>16.00470070490294</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.42574254800465</v>
+        <v>9.187064247943932</v>
       </c>
       <c r="C3">
-        <v>10.10356754912222</v>
+        <v>8.349208341236606</v>
       </c>
       <c r="D3">
-        <v>3.990442784519717</v>
+        <v>3.453922859612638</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.96038342689937</v>
+        <v>17.98538428828848</v>
       </c>
       <c r="G3">
-        <v>18.06153248585876</v>
+        <v>18.2033546309019</v>
       </c>
       <c r="H3">
-        <v>7.089746116231485</v>
+        <v>11.45155587626874</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.75440529375692</v>
+        <v>19.35742486105557</v>
       </c>
       <c r="N3">
-        <v>10.79104453649402</v>
+        <v>16.12334876121475</v>
       </c>
       <c r="O3">
-        <v>11.32874393776095</v>
+        <v>16.0241630408317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.79251087000412</v>
+        <v>8.832085457688553</v>
       </c>
       <c r="C4">
-        <v>9.851603410152938</v>
+        <v>8.240873075138841</v>
       </c>
       <c r="D4">
-        <v>3.860394555932193</v>
+        <v>3.40007930463748</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.584010764489</v>
+        <v>17.95476358268907</v>
       </c>
       <c r="G4">
-        <v>17.4773353236894</v>
+        <v>18.11567315398887</v>
       </c>
       <c r="H4">
-        <v>7.078908917490415</v>
+        <v>11.47235426441931</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.29490790694805</v>
+        <v>18.98158144228076</v>
       </c>
       <c r="N4">
-        <v>10.91684139520361</v>
+        <v>16.1607786420439</v>
       </c>
       <c r="O4">
-        <v>11.18920270608861</v>
+        <v>16.04053762878876</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.52583098806536</v>
+        <v>8.682679991230875</v>
       </c>
       <c r="C5">
-        <v>9.746599586930319</v>
+        <v>8.196148343104133</v>
       </c>
       <c r="D5">
-        <v>3.805913732490009</v>
+        <v>3.377723122017299</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.43157008562143</v>
+        <v>17.94377052313979</v>
       </c>
       <c r="G5">
-        <v>17.23936169446848</v>
+        <v>18.08190647181933</v>
       </c>
       <c r="H5">
-        <v>7.075836917116722</v>
+        <v>11.48136982733983</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.6863215168772</v>
+        <v>18.82822059646877</v>
       </c>
       <c r="N5">
-        <v>10.96868725183089</v>
+        <v>16.17648092523837</v>
       </c>
       <c r="O5">
-        <v>11.13478536401811</v>
+        <v>16.04832042757706</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.48102993986504</v>
+        <v>8.657586448005864</v>
       </c>
       <c r="C6">
-        <v>9.729027502233269</v>
+        <v>8.188688273510664</v>
       </c>
       <c r="D6">
-        <v>3.796778761688049</v>
+        <v>3.373986404726233</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.40632079652822</v>
+        <v>17.94203508354379</v>
       </c>
       <c r="G6">
-        <v>17.19986312702531</v>
+        <v>18.07641930000779</v>
       </c>
       <c r="H6">
-        <v>7.075406673391778</v>
+        <v>11.4828994507736</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.58440993185331</v>
+        <v>18.80275081044125</v>
       </c>
       <c r="N6">
-        <v>10.97733285833946</v>
+        <v>16.17911546046998</v>
       </c>
       <c r="O6">
-        <v>11.12589704017871</v>
+        <v>16.04967971179852</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.78894918294819</v>
+        <v>8.830089665780999</v>
       </c>
       <c r="C7">
-        <v>9.850196521986831</v>
+        <v>8.240272180466539</v>
       </c>
       <c r="D7">
-        <v>3.859665767256466</v>
+        <v>3.399779455211151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.58195080191729</v>
+        <v>17.95460930157625</v>
       </c>
       <c r="G7">
-        <v>17.47412505643984</v>
+        <v>18.11520976005218</v>
       </c>
       <c r="H7">
-        <v>7.078862104537401</v>
+        <v>11.47247366579833</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.2867572553695</v>
+        <v>18.97951362803325</v>
       </c>
       <c r="N7">
-        <v>10.91753818103905</v>
+        <v>16.16098858728331</v>
       </c>
       <c r="O7">
-        <v>11.18845891302005</v>
+        <v>16.04063809975179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.07175251185556</v>
+        <v>9.549463804829019</v>
       </c>
       <c r="C8">
-        <v>10.36409482181346</v>
+        <v>8.46271682341267</v>
       </c>
       <c r="D8">
-        <v>4.124031503548296</v>
+        <v>3.509911574311496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.36456030677295</v>
+        <v>18.02310836680617</v>
       </c>
       <c r="G8">
-        <v>18.68423362841966</v>
+        <v>18.3035168737804</v>
       </c>
       <c r="H8">
-        <v>7.106031836964307</v>
+        <v>11.43121007725709</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.26672175101987</v>
+        <v>19.75706044040454</v>
       </c>
       <c r="N8">
-        <v>10.65864930808687</v>
+        <v>16.08493895702679</v>
       </c>
       <c r="O8">
-        <v>11.48601294018185</v>
+        <v>16.01049158582954</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.31043508348135</v>
+        <v>10.80666419555766</v>
       </c>
       <c r="C9">
-        <v>11.28851890184576</v>
+        <v>8.877565785374316</v>
       </c>
       <c r="D9">
-        <v>4.592999948058783</v>
+        <v>3.711520435113985</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.91289831966841</v>
+        <v>18.20344162701749</v>
       </c>
       <c r="G9">
-        <v>21.03658233532383</v>
+        <v>18.73137458162616</v>
       </c>
       <c r="H9">
-        <v>7.205091140837149</v>
+        <v>11.36738584069354</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.74043135364899</v>
+        <v>21.25663010709886</v>
       </c>
       <c r="N9">
-        <v>10.16476488611097</v>
+        <v>15.94986171888904</v>
       </c>
       <c r="O9">
-        <v>12.1464429561226</v>
+        <v>15.98657484562738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.78387902044497</v>
+        <v>11.63497777497888</v>
       </c>
       <c r="C10">
-        <v>11.90973090382431</v>
+        <v>9.167095712670621</v>
       </c>
       <c r="D10">
-        <v>4.90581341195054</v>
+        <v>3.85001357949713</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.04915914547876</v>
+        <v>18.36311890449285</v>
       </c>
       <c r="G10">
-        <v>22.73998961044304</v>
+        <v>19.07836398459483</v>
       </c>
       <c r="H10">
-        <v>7.308382878871349</v>
+        <v>11.33095409397413</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.60824106359573</v>
+        <v>22.32992005094739</v>
       </c>
       <c r="N10">
-        <v>9.805340597199367</v>
+        <v>15.85908849856932</v>
       </c>
       <c r="O10">
-        <v>12.67809973305261</v>
+        <v>15.99055557176934</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.41650269137023</v>
+        <v>11.99087558848612</v>
       </c>
       <c r="C11">
-        <v>12.17823026703363</v>
+        <v>9.295070255519722</v>
       </c>
       <c r="D11">
-        <v>5.040942791554065</v>
+        <v>3.910765960267676</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.56442703614828</v>
+        <v>18.44143929348995</v>
       </c>
       <c r="G11">
-        <v>23.50826090638845</v>
+        <v>19.24258034688613</v>
       </c>
       <c r="H11">
-        <v>7.362543263016544</v>
+        <v>11.31665897593101</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.35601354943945</v>
+        <v>22.8096007841922</v>
       </c>
       <c r="N11">
-        <v>9.64107623197863</v>
+        <v>15.81961071694252</v>
       </c>
       <c r="O11">
-        <v>12.930002185395</v>
+        <v>15.99705401819223</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.6505973724071</v>
+        <v>12.12262720835828</v>
       </c>
       <c r="C12">
-        <v>12.27774016632254</v>
+        <v>9.342961443855909</v>
       </c>
       <c r="D12">
-        <v>5.091058354550173</v>
+        <v>3.933435987930541</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.7592492647735</v>
+        <v>18.47189267872581</v>
       </c>
       <c r="G12">
-        <v>23.79822361147152</v>
+        <v>19.30561624133426</v>
       </c>
       <c r="H12">
-        <v>7.384128268368602</v>
+        <v>11.31157384716651</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.01859173697158</v>
+        <v>22.9898356147205</v>
       </c>
       <c r="N12">
-        <v>9.578595496919753</v>
+        <v>15.80492094006135</v>
       </c>
       <c r="O12">
-        <v>13.02684286183316</v>
+        <v>16.00018841979765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.6004249657393</v>
+        <v>12.09438657421866</v>
       </c>
       <c r="C13">
-        <v>12.25640760915247</v>
+        <v>9.332673071014232</v>
       </c>
       <c r="D13">
-        <v>5.080312385941916</v>
+        <v>3.928568699395956</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.71730465705368</v>
+        <v>18.46529899997704</v>
       </c>
       <c r="G13">
-        <v>23.73581722729809</v>
+        <v>19.29200355322407</v>
       </c>
       <c r="H13">
-        <v>7.3794309970448</v>
+        <v>11.31265441896626</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.87581495155224</v>
+        <v>22.95108417139381</v>
       </c>
       <c r="N13">
-        <v>9.592067387096522</v>
+        <v>15.80807312344831</v>
       </c>
       <c r="O13">
-        <v>13.00592171428379</v>
+        <v>15.99948342729487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.4358716930361</v>
+        <v>12.00177543948365</v>
       </c>
       <c r="C14">
-        <v>12.18646124965441</v>
+        <v>9.299021896740669</v>
       </c>
       <c r="D14">
-        <v>5.045087113614907</v>
+        <v>3.912637828569799</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.58046137856805</v>
+        <v>18.44392890746497</v>
       </c>
       <c r="G14">
-        <v>23.53213544407948</v>
+        <v>19.24774967751134</v>
       </c>
       <c r="H14">
-        <v>7.3642972602298</v>
+        <v>11.31623404025297</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.41049320599083</v>
+        <v>22.82445802530868</v>
       </c>
       <c r="N14">
-        <v>9.635942601042933</v>
+        <v>15.8183969856219</v>
       </c>
       <c r="O14">
-        <v>12.93794016563272</v>
+        <v>15.99729839283323</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.33436446139937</v>
+        <v>11.94465495830582</v>
       </c>
       <c r="C15">
-        <v>12.14333074783974</v>
+        <v>9.278334410811874</v>
       </c>
       <c r="D15">
-        <v>5.023372498927394</v>
+        <v>3.902835664543533</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.49660085041715</v>
+        <v>18.43094198092646</v>
       </c>
       <c r="G15">
-        <v>23.40724976330301</v>
+        <v>19.2207517260838</v>
       </c>
       <c r="H15">
-        <v>7.355168817867648</v>
+        <v>11.31846940856945</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.12564931770158</v>
+        <v>22.74670726457607</v>
       </c>
       <c r="N15">
-        <v>9.662775500617141</v>
+        <v>15.82475441426786</v>
       </c>
       <c r="O15">
-        <v>12.89648884895044</v>
+        <v>15.99604769071018</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.74177373306429</v>
+        <v>11.61129712185657</v>
       </c>
       <c r="C16">
-        <v>11.89188876602032</v>
+        <v>9.1586542577333</v>
       </c>
       <c r="D16">
-        <v>4.896836073783385</v>
+        <v>3.845996947791882</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.01544597449173</v>
+        <v>18.35811298768427</v>
       </c>
       <c r="G16">
-        <v>22.68964519278429</v>
+        <v>19.06775469544399</v>
       </c>
       <c r="H16">
-        <v>7.304991465088142</v>
+        <v>11.33193420008321</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.49397632263906</v>
+        <v>22.29838379692564</v>
       </c>
       <c r="N16">
-        <v>9.816047039691941</v>
+        <v>15.86170487080435</v>
       </c>
       <c r="O16">
-        <v>12.66183968976223</v>
+        <v>15.99022518228926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.36856109711269</v>
+        <v>11.40142762464045</v>
       </c>
       <c r="C17">
-        <v>11.73393367003595</v>
+        <v>9.084253712122447</v>
       </c>
       <c r="D17">
-        <v>4.817356666150852</v>
+        <v>3.810543218221266</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.71979768297955</v>
+        <v>18.31487506516357</v>
       </c>
       <c r="G17">
-        <v>22.24768930647758</v>
+        <v>18.97548151772247</v>
       </c>
       <c r="H17">
-        <v>7.276077616389362</v>
+        <v>11.34077825441705</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.49152216721412</v>
+        <v>22.02102574349436</v>
       </c>
       <c r="N17">
-        <v>9.909773743457361</v>
+        <v>15.88483671291145</v>
       </c>
       <c r="O17">
-        <v>12.52046363056118</v>
+        <v>15.98785372359675</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.15035845096038</v>
+        <v>11.27874888659786</v>
       </c>
       <c r="C18">
-        <v>11.64176443774167</v>
+        <v>9.041110840915289</v>
       </c>
       <c r="D18">
-        <v>4.770968649764447</v>
+        <v>3.789940155594521</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.54959726662583</v>
+        <v>18.29054203583461</v>
       </c>
       <c r="G18">
-        <v>21.99286136766988</v>
+        <v>18.92301195916101</v>
       </c>
       <c r="H18">
-        <v>7.260119585361539</v>
+        <v>11.34607949429129</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.91365778411188</v>
+        <v>21.86070012087348</v>
       </c>
       <c r="N18">
-        <v>9.963623591152324</v>
+        <v>15.89831249792698</v>
       </c>
       <c r="O18">
-        <v>12.44009274860004</v>
+        <v>15.98693101199706</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.07587208253165</v>
+        <v>11.23687454908736</v>
       </c>
       <c r="C19">
-        <v>11.61033519508126</v>
+        <v>9.0264443997626</v>
       </c>
       <c r="D19">
-        <v>4.755147493147345</v>
+        <v>3.782928460540412</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.4919470144728</v>
+        <v>18.28239603845199</v>
       </c>
       <c r="G19">
-        <v>21.90647505592231</v>
+        <v>18.90535227962396</v>
       </c>
       <c r="H19">
-        <v>7.254830626153384</v>
+        <v>11.34791120352262</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.7177196711248</v>
+        <v>21.80628553147169</v>
       </c>
       <c r="N19">
-        <v>9.981850438381651</v>
+        <v>15.90290457432512</v>
       </c>
       <c r="O19">
-        <v>12.41304288478684</v>
+        <v>15.98669439376708</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.4086569969599</v>
+        <v>11.4239723125727</v>
       </c>
       <c r="C20">
-        <v>11.75088558386731</v>
+        <v>9.092210211026302</v>
       </c>
       <c r="D20">
-        <v>4.825887265598499</v>
+        <v>3.814339259409457</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.75128621942198</v>
+        <v>18.3194224666971</v>
       </c>
       <c r="G20">
-        <v>22.29480146102817</v>
+        <v>18.98524215783166</v>
       </c>
       <c r="H20">
-        <v>7.27908563070194</v>
+        <v>11.33981459855268</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.598352067353</v>
+        <v>22.05063477646591</v>
       </c>
       <c r="N20">
-        <v>9.899803581250485</v>
+        <v>15.88235660554911</v>
       </c>
       <c r="O20">
-        <v>12.53541556552109</v>
+        <v>15.98806049922335</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.4843538031418</v>
+        <v>12.02905959370366</v>
       </c>
       <c r="C21">
-        <v>12.20706613614712</v>
+        <v>9.308921783339011</v>
       </c>
       <c r="D21">
-        <v>5.055462458219238</v>
+        <v>3.917326310802555</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.62066397062568</v>
+        <v>18.45018442468126</v>
       </c>
       <c r="G21">
-        <v>23.59198761982015</v>
+        <v>19.26072555306692</v>
       </c>
       <c r="H21">
-        <v>7.36871285580608</v>
+        <v>11.3151737093693</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.54712682059701</v>
+        <v>22.86169078901029</v>
       </c>
       <c r="N21">
-        <v>9.623064498580812</v>
+        <v>15.81535758302808</v>
       </c>
       <c r="O21">
-        <v>12.95786850253596</v>
+        <v>15.997921916728</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.15548782371072</v>
+        <v>12.40691822969618</v>
       </c>
       <c r="C22">
-        <v>12.49250833975854</v>
+        <v>9.44721930366029</v>
       </c>
       <c r="D22">
-        <v>5.199341380995072</v>
+        <v>3.982673392376071</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.18711486670651</v>
+        <v>18.54026836032912</v>
       </c>
       <c r="G22">
-        <v>24.4699147624536</v>
+        <v>19.44569721152682</v>
       </c>
       <c r="H22">
-        <v>7.433580519320689</v>
+        <v>11.30098222734927</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.48028232014698</v>
+        <v>23.38347491266276</v>
       </c>
       <c r="N22">
-        <v>9.440465199349415</v>
+        <v>15.77308234326879</v>
       </c>
       <c r="O22">
-        <v>13.24243665188169</v>
+        <v>16.00829238441817</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.80023028426594</v>
+        <v>12.20686155514831</v>
       </c>
       <c r="C23">
-        <v>12.34137513154552</v>
+        <v>9.373722864276909</v>
       </c>
       <c r="D23">
-        <v>5.12312258547026</v>
+        <v>3.94797959574791</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.88495816755584</v>
+        <v>18.49177350156346</v>
       </c>
       <c r="G23">
-        <v>23.99034643760076</v>
+        <v>19.34654545121056</v>
       </c>
       <c r="H23">
-        <v>7.398368879646158</v>
+        <v>11.30838129995136</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.44698122755898</v>
+        <v>23.10580154587252</v>
       </c>
       <c r="N23">
-        <v>9.538149938107225</v>
+        <v>15.79550751774723</v>
       </c>
       <c r="O23">
-        <v>13.08977601576368</v>
+        <v>16.00239861941952</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.39054096766226</v>
+        <v>11.41378615611549</v>
       </c>
       <c r="C24">
-        <v>11.74322584561334</v>
+        <v>9.088614224713082</v>
       </c>
       <c r="D24">
-        <v>4.822032742236494</v>
+        <v>3.812623754253301</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.73705095759505</v>
+        <v>18.31736494947204</v>
       </c>
       <c r="G24">
-        <v>22.27350436382786</v>
+        <v>18.9808275624408</v>
       </c>
       <c r="H24">
-        <v>7.277723639668173</v>
+        <v>11.34024959251779</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.55005923945362</v>
+        <v>22.0372512249982</v>
       </c>
       <c r="N24">
-        <v>9.904311188252954</v>
+        <v>15.88347731072192</v>
       </c>
       <c r="O24">
-        <v>12.52865296738651</v>
+        <v>15.98796564333937</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.73473598809224</v>
+        <v>10.48320681756999</v>
       </c>
       <c r="C25">
-        <v>11.04811176528865</v>
+        <v>8.767865137052091</v>
       </c>
       <c r="D25">
-        <v>4.47160257823857</v>
+        <v>3.658612256634702</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.49367940547797</v>
+        <v>18.14981230815581</v>
       </c>
       <c r="G25">
-        <v>20.40392504071067</v>
+        <v>18.6096583720293</v>
       </c>
       <c r="H25">
-        <v>7.173119636405331</v>
+        <v>11.38281773521265</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.29272020050962</v>
+        <v>20.85507299108772</v>
       </c>
       <c r="N25">
-        <v>10.29734994692943</v>
+        <v>15.98490938150241</v>
       </c>
       <c r="O25">
-        <v>11.95958921978661</v>
+        <v>15.98926452440247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.734077866766217</v>
+        <v>16.40069885685538</v>
       </c>
       <c r="C2">
-        <v>8.52163074024365</v>
+        <v>10.49797324884493</v>
       </c>
       <c r="D2">
-        <v>3.538815405798462</v>
+        <v>4.192382238841526</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.0448088309194</v>
+        <v>15.57795511320377</v>
       </c>
       <c r="G2">
-        <v>18.3586086075477</v>
+        <v>19.01130883808733</v>
       </c>
       <c r="H2">
-        <v>11.4211849205143</v>
+        <v>7.116392660507108</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96655746346338</v>
+        <v>30.04691142161835</v>
       </c>
       <c r="N2">
-        <v>16.06528831776998</v>
+        <v>10.58958908448069</v>
       </c>
       <c r="O2">
-        <v>16.00470070490294</v>
+        <v>11.57185463343996</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.187064247943932</v>
+        <v>15.4257425480047</v>
       </c>
       <c r="C3">
-        <v>8.349208341236606</v>
+        <v>10.10356754912233</v>
       </c>
       <c r="D3">
-        <v>3.453922859612638</v>
+        <v>3.990442784519675</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.98538428828848</v>
+        <v>14.96038342689929</v>
       </c>
       <c r="G3">
-        <v>18.2033546309019</v>
+        <v>18.06153248585866</v>
       </c>
       <c r="H3">
-        <v>11.45155587626874</v>
+        <v>7.089746116231425</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35742486105557</v>
+        <v>27.75440529375696</v>
       </c>
       <c r="N3">
-        <v>16.12334876121475</v>
+        <v>10.79104453649399</v>
       </c>
       <c r="O3">
-        <v>16.0241630408317</v>
+        <v>11.32874393776084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.832085457688553</v>
+        <v>14.79251087000413</v>
       </c>
       <c r="C4">
-        <v>8.240873075138841</v>
+        <v>9.851603410152796</v>
       </c>
       <c r="D4">
-        <v>3.40007930463748</v>
+        <v>3.860394555932229</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.95476358268907</v>
+        <v>14.58401076448907</v>
       </c>
       <c r="G4">
-        <v>18.11567315398887</v>
+        <v>17.47733532368943</v>
       </c>
       <c r="H4">
-        <v>11.47235426441931</v>
+        <v>7.078908917490474</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98158144228076</v>
+        <v>26.29490790694809</v>
       </c>
       <c r="N4">
-        <v>16.1607786420439</v>
+        <v>10.91684139520361</v>
       </c>
       <c r="O4">
-        <v>16.04053762878876</v>
+        <v>11.18920270608868</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.682679991230875</v>
+        <v>14.52583098806534</v>
       </c>
       <c r="C5">
-        <v>8.196148343104133</v>
+        <v>9.746599586930401</v>
       </c>
       <c r="D5">
-        <v>3.377723122017299</v>
+        <v>3.805913732489946</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.94377052313979</v>
+        <v>14.4315700856215</v>
       </c>
       <c r="G5">
-        <v>18.08190647181933</v>
+        <v>17.23936169446853</v>
       </c>
       <c r="H5">
-        <v>11.48136982733983</v>
+        <v>7.075836917116776</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.82822059646877</v>
+        <v>25.68632151687728</v>
       </c>
       <c r="N5">
-        <v>16.17648092523837</v>
+        <v>10.96868725183092</v>
       </c>
       <c r="O5">
-        <v>16.04832042757706</v>
+        <v>11.13478536401817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.657586448005864</v>
+        <v>14.48102993986512</v>
       </c>
       <c r="C6">
-        <v>8.188688273510664</v>
+        <v>9.729027502233269</v>
       </c>
       <c r="D6">
-        <v>3.373986404726233</v>
+        <v>3.796778761688071</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.94203508354379</v>
+        <v>14.40632079652809</v>
       </c>
       <c r="G6">
-        <v>18.07641930000779</v>
+        <v>17.19986312702515</v>
       </c>
       <c r="H6">
-        <v>11.4828994507736</v>
+        <v>7.075406673391717</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80275081044125</v>
+        <v>25.58440993185336</v>
       </c>
       <c r="N6">
-        <v>16.17911546046998</v>
+        <v>10.97733285833944</v>
       </c>
       <c r="O6">
-        <v>16.04967971179852</v>
+        <v>11.12589704017858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.830089665780999</v>
+        <v>14.78894918294821</v>
       </c>
       <c r="C7">
-        <v>8.240272180466539</v>
+        <v>9.850196521986831</v>
       </c>
       <c r="D7">
-        <v>3.399779455211151</v>
+        <v>3.859665767256522</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.95460930157625</v>
+        <v>14.58195080191726</v>
       </c>
       <c r="G7">
-        <v>18.11520976005218</v>
+        <v>17.47412505643984</v>
       </c>
       <c r="H7">
-        <v>11.47247366579833</v>
+        <v>7.078862104537391</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.97951362803325</v>
+        <v>26.28675725536956</v>
       </c>
       <c r="N7">
-        <v>16.16098858728331</v>
+        <v>10.91753818103908</v>
       </c>
       <c r="O7">
-        <v>16.04063809975179</v>
+        <v>11.18845891302005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.549463804829019</v>
+        <v>16.0717525118556</v>
       </c>
       <c r="C8">
-        <v>8.46271682341267</v>
+        <v>10.36409482181333</v>
       </c>
       <c r="D8">
-        <v>3.509911574311496</v>
+        <v>4.124031503548403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.02310836680617</v>
+        <v>15.36456030677294</v>
       </c>
       <c r="G8">
-        <v>18.3035168737804</v>
+        <v>18.68423362841969</v>
       </c>
       <c r="H8">
-        <v>11.43121007725709</v>
+        <v>7.106031836964315</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75706044040454</v>
+        <v>29.2667217510199</v>
       </c>
       <c r="N8">
-        <v>16.08493895702679</v>
+        <v>10.65864930808687</v>
       </c>
       <c r="O8">
-        <v>16.01049158582954</v>
+        <v>11.48601294018186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.80666419555766</v>
+        <v>18.31043508348135</v>
       </c>
       <c r="C9">
-        <v>8.877565785374316</v>
+        <v>11.28851890184567</v>
       </c>
       <c r="D9">
-        <v>3.711520435113985</v>
+        <v>4.592999948058798</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.20344162701749</v>
+        <v>16.91289831966842</v>
       </c>
       <c r="G9">
-        <v>18.73137458162616</v>
+        <v>21.03658233532385</v>
       </c>
       <c r="H9">
-        <v>11.36738584069354</v>
+        <v>7.205091140837156</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25663010709886</v>
+        <v>34.74043135364896</v>
       </c>
       <c r="N9">
-        <v>15.94986171888904</v>
+        <v>10.16476488611093</v>
       </c>
       <c r="O9">
-        <v>15.98657484562738</v>
+        <v>12.14644295612261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.63497777497888</v>
+        <v>19.78387902044494</v>
       </c>
       <c r="C10">
-        <v>9.167095712670621</v>
+        <v>11.90973090382428</v>
       </c>
       <c r="D10">
-        <v>3.85001357949713</v>
+        <v>4.90581341195062</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.36311890449285</v>
+        <v>18.04915914547877</v>
       </c>
       <c r="G10">
-        <v>19.07836398459483</v>
+        <v>22.73998961044302</v>
       </c>
       <c r="H10">
-        <v>11.33095409397413</v>
+        <v>7.308382878871413</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32992005094739</v>
+        <v>38.60824106359569</v>
       </c>
       <c r="N10">
-        <v>15.85908849856932</v>
+        <v>9.805340597199397</v>
       </c>
       <c r="O10">
-        <v>15.99055557176934</v>
+        <v>12.67809973305265</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.99087558848612</v>
+        <v>20.41650269137021</v>
       </c>
       <c r="C11">
-        <v>9.295070255519722</v>
+        <v>12.17823026703366</v>
       </c>
       <c r="D11">
-        <v>3.910765960267676</v>
+        <v>5.0409427915541</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.44143929348995</v>
+        <v>18.56442703614826</v>
       </c>
       <c r="G11">
-        <v>19.24258034688613</v>
+        <v>23.50826090638845</v>
       </c>
       <c r="H11">
-        <v>11.31665897593101</v>
+        <v>7.362543263016544</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.8096007841922</v>
+        <v>40.35601354943938</v>
       </c>
       <c r="N11">
-        <v>15.81961071694252</v>
+        <v>9.641076231978696</v>
       </c>
       <c r="O11">
-        <v>15.99705401819223</v>
+        <v>12.93000218539503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.12262720835828</v>
+        <v>20.65059737240703</v>
       </c>
       <c r="C12">
-        <v>9.342961443855909</v>
+        <v>12.27774016632262</v>
       </c>
       <c r="D12">
-        <v>3.933435987930541</v>
+        <v>5.091058354550189</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.47189267872581</v>
+        <v>18.75924926477354</v>
       </c>
       <c r="G12">
-        <v>19.30561624133426</v>
+        <v>23.79822361147152</v>
       </c>
       <c r="H12">
-        <v>11.31157384716651</v>
+        <v>7.384128268368614</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.9898356147205</v>
+        <v>41.01859173697149</v>
       </c>
       <c r="N12">
-        <v>15.80492094006135</v>
+        <v>9.578595496919785</v>
       </c>
       <c r="O12">
-        <v>16.00018841979765</v>
+        <v>13.02684286183321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.09438657421866</v>
+        <v>20.60042496573932</v>
       </c>
       <c r="C13">
-        <v>9.332673071014232</v>
+        <v>12.25640760915231</v>
       </c>
       <c r="D13">
-        <v>3.928568699395956</v>
+        <v>5.080312385941937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.46529899997704</v>
+        <v>18.71730465705367</v>
       </c>
       <c r="G13">
-        <v>19.29200355322407</v>
+        <v>23.73581722729806</v>
       </c>
       <c r="H13">
-        <v>11.31265441896626</v>
+        <v>7.379430997044828</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.95108417139381</v>
+        <v>40.87581495155238</v>
       </c>
       <c r="N13">
-        <v>15.80807312344831</v>
+        <v>9.592067387096563</v>
       </c>
       <c r="O13">
-        <v>15.99948342729487</v>
+        <v>13.0059217142838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.00177543948365</v>
+        <v>20.43587169303608</v>
       </c>
       <c r="C14">
-        <v>9.299021896740669</v>
+        <v>12.18646124965449</v>
       </c>
       <c r="D14">
-        <v>3.912637828569799</v>
+        <v>5.045087113614836</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.44392890746497</v>
+        <v>18.58046137856799</v>
       </c>
       <c r="G14">
-        <v>19.24774967751134</v>
+        <v>23.53213544407942</v>
       </c>
       <c r="H14">
-        <v>11.31623404025297</v>
+        <v>7.364297260229782</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.82445802530868</v>
+        <v>40.41049320599077</v>
       </c>
       <c r="N14">
-        <v>15.8183969856219</v>
+        <v>9.635942601042965</v>
       </c>
       <c r="O14">
-        <v>15.99729839283323</v>
+        <v>12.9379401656327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.94465495830582</v>
+        <v>20.33436446139935</v>
       </c>
       <c r="C15">
-        <v>9.278334410811874</v>
+        <v>12.14333074783983</v>
       </c>
       <c r="D15">
-        <v>3.902835664543533</v>
+        <v>5.023372498927345</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.43094198092646</v>
+        <v>18.49660085041714</v>
       </c>
       <c r="G15">
-        <v>19.2207517260838</v>
+        <v>23.40724976330295</v>
       </c>
       <c r="H15">
-        <v>11.31846940856945</v>
+        <v>7.35516881786768</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74670726457607</v>
+        <v>40.12564931770149</v>
       </c>
       <c r="N15">
-        <v>15.82475441426786</v>
+        <v>9.662775500617181</v>
       </c>
       <c r="O15">
-        <v>15.99604769071018</v>
+        <v>12.89648884895044</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.61129712185657</v>
+        <v>19.74177373306435</v>
       </c>
       <c r="C16">
-        <v>9.1586542577333</v>
+        <v>11.89188876602048</v>
       </c>
       <c r="D16">
-        <v>3.845996947791882</v>
+        <v>4.896836073783458</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.35811298768427</v>
+        <v>18.01544597449172</v>
       </c>
       <c r="G16">
-        <v>19.06775469544399</v>
+        <v>22.68964519278431</v>
       </c>
       <c r="H16">
-        <v>11.33193420008321</v>
+        <v>7.304991465088155</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29838379692564</v>
+        <v>38.49397632263911</v>
       </c>
       <c r="N16">
-        <v>15.86170487080435</v>
+        <v>9.816047039691977</v>
       </c>
       <c r="O16">
-        <v>15.99022518228926</v>
+        <v>12.66183968976223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.40142762464045</v>
+        <v>19.36856109711266</v>
       </c>
       <c r="C17">
-        <v>9.084253712122447</v>
+        <v>11.73393367003601</v>
       </c>
       <c r="D17">
-        <v>3.810543218221266</v>
+        <v>4.817356666150839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.31487506516357</v>
+        <v>17.71979768297954</v>
       </c>
       <c r="G17">
-        <v>18.97548151772247</v>
+        <v>22.24768930647758</v>
       </c>
       <c r="H17">
-        <v>11.34077825441705</v>
+        <v>7.276077616389356</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.02102574349436</v>
+        <v>37.49152216721411</v>
       </c>
       <c r="N17">
-        <v>15.88483671291145</v>
+        <v>9.909773743457363</v>
       </c>
       <c r="O17">
-        <v>15.98785372359675</v>
+        <v>12.52046363056118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.27874888659786</v>
+        <v>19.15035845096038</v>
       </c>
       <c r="C18">
-        <v>9.041110840915289</v>
+        <v>11.64176443774179</v>
       </c>
       <c r="D18">
-        <v>3.789940155594521</v>
+        <v>4.770968649764376</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.29054203583461</v>
+        <v>17.54959726662582</v>
       </c>
       <c r="G18">
-        <v>18.92301195916101</v>
+        <v>21.99286136766985</v>
       </c>
       <c r="H18">
-        <v>11.34607949429129</v>
+        <v>7.260119585361534</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.86070012087348</v>
+        <v>36.91365778411183</v>
       </c>
       <c r="N18">
-        <v>15.89831249792698</v>
+        <v>9.963623591152361</v>
       </c>
       <c r="O18">
-        <v>15.98693101199706</v>
+        <v>12.44009274860002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.23687454908736</v>
+        <v>19.07587208253158</v>
       </c>
       <c r="C19">
-        <v>9.0264443997626</v>
+        <v>11.61033519508117</v>
       </c>
       <c r="D19">
-        <v>3.782928460540412</v>
+        <v>4.755147493147397</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.28239603845199</v>
+        <v>17.49194701447284</v>
       </c>
       <c r="G19">
-        <v>18.90535227962396</v>
+        <v>21.90647505592231</v>
       </c>
       <c r="H19">
-        <v>11.34791120352262</v>
+        <v>7.254830626153384</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80628553147169</v>
+        <v>36.7177196711248</v>
       </c>
       <c r="N19">
-        <v>15.90290457432512</v>
+        <v>9.981850438381684</v>
       </c>
       <c r="O19">
-        <v>15.98669439376708</v>
+        <v>12.41304288478689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.4239723125727</v>
+        <v>19.40865699695991</v>
       </c>
       <c r="C20">
-        <v>9.092210211026302</v>
+        <v>11.75088558386738</v>
       </c>
       <c r="D20">
-        <v>3.814339259409457</v>
+        <v>4.825887265598512</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.3194224666971</v>
+        <v>17.75128621942201</v>
       </c>
       <c r="G20">
-        <v>18.98524215783166</v>
+        <v>22.29480146102821</v>
       </c>
       <c r="H20">
-        <v>11.33981459855268</v>
+        <v>7.279085630701916</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.05063477646591</v>
+        <v>37.598352067353</v>
       </c>
       <c r="N20">
-        <v>15.88235660554911</v>
+        <v>9.899803581250517</v>
       </c>
       <c r="O20">
-        <v>15.98806049922335</v>
+        <v>12.53541556552111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.02905959370366</v>
+        <v>20.48435380314179</v>
       </c>
       <c r="C21">
-        <v>9.308921783339011</v>
+        <v>12.20706613614719</v>
       </c>
       <c r="D21">
-        <v>3.917326310802555</v>
+        <v>5.055462458219259</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.45018442468126</v>
+        <v>18.6206639706257</v>
       </c>
       <c r="G21">
-        <v>19.26072555306692</v>
+        <v>23.59198761982014</v>
       </c>
       <c r="H21">
-        <v>11.3151737093693</v>
+        <v>7.368712855806048</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86169078901029</v>
+        <v>40.54712682059704</v>
       </c>
       <c r="N21">
-        <v>15.81535758302808</v>
+        <v>9.623064498580845</v>
       </c>
       <c r="O21">
-        <v>15.997921916728</v>
+        <v>12.95786850253598</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.40691822969618</v>
+        <v>21.1554878237106</v>
       </c>
       <c r="C22">
-        <v>9.44721930366029</v>
+        <v>12.4925083397586</v>
       </c>
       <c r="D22">
-        <v>3.982673392376071</v>
+        <v>5.199341380995008</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.54026836032912</v>
+        <v>19.18711486670651</v>
       </c>
       <c r="G22">
-        <v>19.44569721152682</v>
+        <v>24.46991476245355</v>
       </c>
       <c r="H22">
-        <v>11.30098222734927</v>
+        <v>7.433580519320778</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.38347491266276</v>
+        <v>42.48028232014708</v>
       </c>
       <c r="N22">
-        <v>15.77308234326879</v>
+        <v>9.44046519934941</v>
       </c>
       <c r="O22">
-        <v>16.00829238441817</v>
+        <v>13.24243665188173</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.20686155514831</v>
+        <v>20.80023028426602</v>
       </c>
       <c r="C23">
-        <v>9.373722864276909</v>
+        <v>12.34137513154537</v>
       </c>
       <c r="D23">
-        <v>3.94797959574791</v>
+        <v>5.12312258547021</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.49177350156346</v>
+        <v>18.8849581675558</v>
       </c>
       <c r="G23">
-        <v>19.34654545121056</v>
+        <v>23.99034643760067</v>
       </c>
       <c r="H23">
-        <v>11.30838129995136</v>
+        <v>7.398368879646074</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10580154587252</v>
+        <v>41.44698122755884</v>
       </c>
       <c r="N23">
-        <v>15.79550751774723</v>
+        <v>9.538149938107232</v>
       </c>
       <c r="O23">
-        <v>16.00239861941952</v>
+        <v>13.08977601576364</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.41378615611549</v>
+        <v>19.39054096766223</v>
       </c>
       <c r="C24">
-        <v>9.088614224713082</v>
+        <v>11.74322584561332</v>
       </c>
       <c r="D24">
-        <v>3.812623754253301</v>
+        <v>4.8220327422365</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.31736494947204</v>
+        <v>17.7370509575951</v>
       </c>
       <c r="G24">
-        <v>18.9808275624408</v>
+        <v>22.27350436382794</v>
       </c>
       <c r="H24">
-        <v>11.34024959251779</v>
+        <v>7.277723639668217</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.0372512249982</v>
+        <v>37.5500592394537</v>
       </c>
       <c r="N24">
-        <v>15.88347731072192</v>
+        <v>9.904311188253011</v>
       </c>
       <c r="O24">
-        <v>15.98796564333937</v>
+        <v>12.52865296738657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.48320681756999</v>
+        <v>17.73473598809228</v>
       </c>
       <c r="C25">
-        <v>8.767865137052091</v>
+        <v>11.04811176528866</v>
       </c>
       <c r="D25">
-        <v>3.658612256634702</v>
+        <v>4.471602578238652</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.14981230815581</v>
+        <v>16.49367940547797</v>
       </c>
       <c r="G25">
-        <v>18.6096583720293</v>
+        <v>20.40392504071075</v>
       </c>
       <c r="H25">
-        <v>11.38281773521265</v>
+        <v>7.173119636405302</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85507299108772</v>
+        <v>33.29272020050954</v>
       </c>
       <c r="N25">
-        <v>15.98490938150241</v>
+        <v>10.29734994692946</v>
       </c>
       <c r="O25">
-        <v>15.98926452440247</v>
+        <v>11.95958921978663</v>
       </c>
     </row>
   </sheetData>
